--- a/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Abríl.xlsx
@@ -238,11 +238,11 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
+          <t xml:space="preserve">Abandono De La Querella</t>
         </is>
       </c>
       <c r="C3" s="65">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -253,11 +253,11 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Acumulación.</t>
+          <t xml:space="preserve">Absolución O Condena.</t>
         </is>
       </c>
       <c r="C4" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -268,11 +268,11 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
+          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
         </is>
       </c>
       <c r="C5" s="65">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -283,11 +283,11 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
+          <t xml:space="preserve">Acumulación.</t>
         </is>
       </c>
       <c r="C6" s="65">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -298,11 +298,11 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Declara Inadmisibilidad De La Querella.</t>
+          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
         </is>
       </c>
       <c r="C7" s="65">
-        <v>10</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -313,11 +313,11 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Declara Incompetencia Rpa</t>
+          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
         </is>
       </c>
       <c r="C8" s="65">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -328,11 +328,11 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Declara Inadmisibilidad De La Querella.</t>
         </is>
       </c>
       <c r="C9" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -343,11 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+          <t xml:space="preserve">Declara Incompetencia Rpa</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>221</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -358,11 +358,11 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Desistimiento Querella.</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -373,11 +373,11 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
         </is>
       </c>
       <c r="C12" s="65">
-        <v>26</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
@@ -388,11 +388,41 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
+          <t xml:space="preserve">Desistimiento Querella.</t>
+        </is>
+      </c>
+      <c r="C13" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">Juzgado De Garantía De Colina</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+        </is>
+      </c>
+      <c r="C14" s="65">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">Juzgado De Garantía De Colina</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C13" s="65">
-        <v>1</v>
+      <c r="C15" s="65">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
